--- a/apps/load_data/2022/05/PLMOVMAE.xlsx
+++ b/apps/load_data/2022/05/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2022\HHY0522\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-\HHY0522\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF6FD89-02AC-4346-87D7-26F9D58022C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133798BE-BA2E-4A80-BCC9-6DB345F79450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$272</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$272</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11788" uniqueCount="3452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11768" uniqueCount="3449">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7189,9 +7190,6 @@
     <t>0128A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8479,9 +8477,6 @@
     <t>0092A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8798,9 +8793,6 @@
   </si>
   <si>
     <t>0062A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10384,7 +10376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11224,10 +11216,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD232" sqref="AC171:AD232"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43343,12 +43337,7 @@
       <c r="AB171" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>108</v>
       </c>
@@ -43401,16 +43390,16 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2390</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2391</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>119</v>
@@ -43425,13 +43414,13 @@
         <v>163</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>123</v>
@@ -43452,19 +43441,19 @@
         <v>113</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="CH171" s="1" t="s">
+      <c r="CI171" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="CI171" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="CJ171" s="1" t="s">
         <v>131</v>
@@ -43502,19 +43491,19 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="Q172" s="3">
         <v>27241</v>
@@ -43543,12 +43532,7 @@
       <c r="AB172" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>108</v>
       </c>
@@ -43595,7 +43579,7 @@
         <v>113</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BB172" s="1">
         <v>5</v>
@@ -43604,13 +43588,13 @@
         <v>22</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>1738</v>
@@ -43625,13 +43609,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>123</v>
@@ -43655,16 +43639,16 @@
         <v>113</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>2073</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>1743</v>
@@ -43705,19 +43689,19 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="Q173" s="3">
         <v>25223</v>
@@ -43746,12 +43730,7 @@
       <c r="AB173" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>108</v>
       </c>
@@ -43798,7 +43777,7 @@
         <v>113</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BB173" s="1">
         <v>5</v>
@@ -43807,16 +43786,16 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>119</v>
@@ -43831,13 +43810,13 @@
         <v>163</v>
       </c>
       <c r="BS173" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BT173" s="3">
         <v>36825</v>
       </c>
       <c r="BU173" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BV173" s="1" t="s">
         <v>123</v>
@@ -43861,19 +43840,19 @@
         <v>113</v>
       </c>
       <c r="CD173" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="CE173" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CF173" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="CF173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="CH173" s="1" t="s">
+      <c r="CI173" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="CI173" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="CJ173" s="1" t="s">
         <v>131</v>
@@ -43911,19 +43890,19 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="Q174" s="3">
         <v>27018</v>
@@ -43949,12 +43928,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>108</v>
       </c>
@@ -44004,7 +43978,7 @@
         <v>113</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BB174" s="1">
         <v>5</v>
@@ -44013,13 +43987,13 @@
         <v>22</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>119</v>
@@ -44028,7 +44002,7 @@
         <v>107</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>123</v>
@@ -44046,16 +44020,16 @@
         <v>113</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>131</v>
@@ -44096,19 +44070,19 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="Q175" s="3">
         <v>29037</v>
@@ -44137,12 +44111,7 @@
       <c r="AB175" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>108</v>
       </c>
@@ -44192,7 +44161,7 @@
         <v>113</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BB175" s="1">
         <v>5</v>
@@ -44201,13 +44170,13 @@
         <v>22</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>1921</v>
@@ -44219,7 +44188,7 @@
         <v>107</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>123</v>
@@ -44240,13 +44209,13 @@
         <v>693</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>1925</v>
@@ -44287,19 +44256,19 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="Q176" s="3">
         <v>26647</v>
@@ -44325,12 +44294,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>108</v>
       </c>
@@ -44380,7 +44344,7 @@
         <v>113</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BB176" s="1">
         <v>5</v>
@@ -44389,13 +44353,13 @@
         <v>22</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>1104</v>
@@ -44407,7 +44371,7 @@
         <v>107</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>123</v>
@@ -44425,16 +44389,16 @@
         <v>113</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2456</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>1109</v>
@@ -44475,19 +44439,19 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="Q177" s="3">
         <v>25405</v>
@@ -44519,12 +44483,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>108</v>
       </c>
@@ -44571,7 +44530,7 @@
         <v>113</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BB177" s="1">
         <v>5</v>
@@ -44580,13 +44539,13 @@
         <v>22</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>417</v>
@@ -44601,13 +44560,13 @@
         <v>120</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>123</v>
@@ -44625,16 +44584,16 @@
         <v>113</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>424</v>
@@ -44675,19 +44634,19 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="Q178" s="3">
         <v>28845</v>
@@ -44713,12 +44672,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>108</v>
       </c>
@@ -44768,7 +44722,7 @@
         <v>113</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BB178" s="1">
         <v>5</v>
@@ -44777,13 +44731,13 @@
         <v>22</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>584</v>
@@ -44795,7 +44749,7 @@
         <v>107</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>123</v>
@@ -44813,16 +44767,16 @@
         <v>113</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>590</v>
@@ -44863,19 +44817,19 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="Q179" s="3">
         <v>21425</v>
@@ -44901,12 +44855,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>108</v>
       </c>
@@ -44956,7 +44905,7 @@
         <v>113</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BB179" s="1">
         <v>5</v>
@@ -44965,13 +44914,13 @@
         <v>22</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>1104</v>
@@ -44986,7 +44935,7 @@
         <v>163</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>123</v>
@@ -45004,16 +44953,16 @@
         <v>113</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>1109</v>
@@ -45048,25 +44997,25 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="Q180" s="3">
         <v>23286</v>
@@ -45095,12 +45044,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>108</v>
       </c>
@@ -45150,7 +45094,7 @@
         <v>113</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BB180" s="1">
         <v>5</v>
@@ -45159,13 +45103,13 @@
         <v>22</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>119</v>
@@ -45174,7 +45118,7 @@
         <v>107</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>123</v>
@@ -45186,7 +45130,7 @@
         <v>112</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>125</v>
@@ -45195,16 +45139,16 @@
         <v>113</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>131</v>
@@ -45245,19 +45189,19 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="Q181" s="3">
         <v>26907</v>
@@ -45283,12 +45227,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>108</v>
       </c>
@@ -45335,7 +45274,7 @@
         <v>113</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BB181" s="1">
         <v>5</v>
@@ -45344,16 +45283,16 @@
         <v>22</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>119</v>
@@ -45365,13 +45304,13 @@
         <v>120</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>123</v>
@@ -45389,19 +45328,19 @@
         <v>113</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1874</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>131</v>
@@ -45439,19 +45378,19 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="Q182" s="3">
         <v>28642</v>
@@ -45529,7 +45468,7 @@
         <v>113</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BB182" s="1">
         <v>5</v>
@@ -45538,16 +45477,16 @@
         <v>22</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="BN182" s="1" t="s">
         <v>119</v>
@@ -45559,7 +45498,7 @@
         <v>163</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>123</v>
@@ -45577,19 +45516,19 @@
         <v>113</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>421</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CH182" s="1" t="s">
+      <c r="CI182" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="CI182" s="1" t="s">
-        <v>2536</v>
       </c>
       <c r="CJ182" s="1" t="s">
         <v>131</v>
@@ -45627,19 +45566,19 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="Q183" s="3">
         <v>28239</v>
@@ -45711,7 +45650,7 @@
         <v>113</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BB183" s="1">
         <v>5</v>
@@ -45720,13 +45659,13 @@
         <v>22</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1932</v>
@@ -45741,13 +45680,13 @@
         <v>222</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>123</v>
@@ -45765,16 +45704,16 @@
         <v>113</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>1938</v>
@@ -45815,19 +45754,19 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="Q184" s="3">
         <v>25589</v>
@@ -45896,7 +45835,7 @@
         <v>113</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BB184" s="1">
         <v>5</v>
@@ -45905,16 +45844,16 @@
         <v>22</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>119</v>
@@ -45926,13 +45865,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>123</v>
@@ -45950,19 +45889,19 @@
         <v>113</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2563</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2564</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>131</v>
@@ -46000,19 +45939,19 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="Q185" s="3">
         <v>29170</v>
@@ -46087,7 +46026,7 @@
         <v>113</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BB185" s="1">
         <v>5</v>
@@ -46096,13 +46035,13 @@
         <v>22</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>119</v>
@@ -46111,7 +46050,7 @@
         <v>107</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>123</v>
@@ -46129,16 +46068,16 @@
         <v>113</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>900</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>131</v>
@@ -46179,19 +46118,19 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="Q186" s="3">
         <v>27250</v>
@@ -46224,7 +46163,7 @@
         <v>108</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AH186" s="1" t="s">
         <v>1991</v>
@@ -46269,7 +46208,7 @@
         <v>113</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BB186" s="1">
         <v>5</v>
@@ -46278,13 +46217,13 @@
         <v>22</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>119</v>
@@ -46293,7 +46232,7 @@
         <v>107</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>123</v>
@@ -46314,13 +46253,13 @@
         <v>1650</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>131</v>
@@ -46361,19 +46300,19 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="Q187" s="3">
         <v>27999</v>
@@ -46448,7 +46387,7 @@
         <v>113</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BB187" s="1">
         <v>5</v>
@@ -46457,16 +46396,16 @@
         <v>22</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>119</v>
@@ -46478,13 +46417,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>123</v>
@@ -46508,13 +46447,13 @@
         <v>986</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>131</v>
@@ -46552,19 +46491,19 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="Q188" s="3">
         <v>29305</v>
@@ -46639,7 +46578,7 @@
         <v>113</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BB188" s="1">
         <v>5</v>
@@ -46648,13 +46587,13 @@
         <v>22</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>1104</v>
@@ -46666,7 +46605,7 @@
         <v>107</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>123</v>
@@ -46684,16 +46623,16 @@
         <v>113</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>1109</v>
@@ -46734,19 +46673,19 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="Q189" s="3">
         <v>23125</v>
@@ -46782,7 +46721,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>108</v>
@@ -46836,16 +46775,16 @@
         <v>22</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>119</v>
@@ -46857,13 +46796,13 @@
         <v>222</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>123</v>
@@ -46884,7 +46823,7 @@
         <v>113</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>297</v>
@@ -46893,10 +46832,10 @@
         <v>1681</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>131</v>
@@ -46934,19 +46873,19 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="Q190" s="3">
         <v>30023</v>
@@ -47024,13 +46963,13 @@
         <v>22</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>1170</v>
@@ -47045,13 +46984,13 @@
         <v>120</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>123</v>
@@ -47075,10 +47014,10 @@
         <v>677</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2634</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>1176</v>
@@ -47119,19 +47058,19 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="Q191" s="3">
         <v>26205</v>
@@ -47212,13 +47151,13 @@
         <v>22</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>119</v>
@@ -47227,7 +47166,7 @@
         <v>107</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>123</v>
@@ -47245,16 +47184,16 @@
         <v>113</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>131</v>
@@ -47295,19 +47234,19 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2649</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="Q192" s="3">
         <v>31662</v>
@@ -47391,13 +47330,13 @@
         <v>22</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1104</v>
@@ -47412,7 +47351,7 @@
         <v>163</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>123</v>
@@ -47430,16 +47369,16 @@
         <v>113</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2656</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2657</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>1109</v>
@@ -47480,19 +47419,19 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2658</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2660</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="Q193" s="3">
         <v>29117</v>
@@ -47570,16 +47509,16 @@
         <v>22</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>119</v>
@@ -47591,13 +47530,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>123</v>
@@ -47618,16 +47557,16 @@
         <v>516</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2669</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2670</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>131</v>
@@ -47665,19 +47604,19 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="Q194" s="3">
         <v>30007</v>
@@ -47758,16 +47697,16 @@
         <v>22</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2677</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>119</v>
@@ -47779,13 +47718,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>123</v>
@@ -47806,16 +47745,16 @@
         <v>986</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2682</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2683</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>131</v>
@@ -47853,22 +47792,22 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="Q195" s="3">
         <v>26221</v>
@@ -47949,13 +47888,13 @@
         <v>22</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>119</v>
@@ -47967,13 +47906,13 @@
         <v>120</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>123</v>
@@ -47991,16 +47930,16 @@
         <v>113</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2693</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2694</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>131</v>
@@ -48041,19 +47980,19 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2696</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2697</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="Q196" s="3">
         <v>27571</v>
@@ -48131,16 +48070,16 @@
         <v>22</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2701</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>119</v>
@@ -48152,13 +48091,13 @@
         <v>120</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>123</v>
@@ -48176,19 +48115,19 @@
         <v>113</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="CH196" s="1" t="s">
+      <c r="CI196" s="1" t="s">
         <v>2707</v>
-      </c>
-      <c r="CI196" s="1" t="s">
-        <v>2708</v>
       </c>
       <c r="CJ196" s="1" t="s">
         <v>131</v>
@@ -48220,16 +48159,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -48307,7 +48246,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>119</v>
@@ -48322,7 +48261,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>125</v>
@@ -48331,7 +48270,7 @@
         <v>113</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>131</v>
@@ -48375,19 +48314,19 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="Q198" s="3">
         <v>30993</v>
@@ -48462,7 +48401,7 @@
         <v>113</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BB198" s="1">
         <v>5</v>
@@ -48471,13 +48410,13 @@
         <v>22</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BN198" s="1" t="s">
         <v>119</v>
@@ -48486,7 +48425,7 @@
         <v>107</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>123</v>
@@ -48504,16 +48443,16 @@
         <v>113</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>131</v>
@@ -48554,19 +48493,19 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="Q199" s="3">
         <v>30065</v>
@@ -48641,7 +48580,7 @@
         <v>113</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BB199" s="1">
         <v>5</v>
@@ -48650,7 +48589,7 @@
         <v>22</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>116</v>
@@ -48668,7 +48607,7 @@
         <v>107</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>123</v>
@@ -48686,13 +48625,13 @@
         <v>113</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="CF199" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>2087</v>
@@ -48736,19 +48675,19 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2734</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="Q200" s="3">
         <v>30033</v>
@@ -48823,7 +48762,7 @@
         <v>113</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BB200" s="1">
         <v>5</v>
@@ -48832,13 +48771,13 @@
         <v>22</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>119</v>
@@ -48847,7 +48786,7 @@
         <v>107</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>123</v>
@@ -48868,13 +48807,13 @@
         <v>1160</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2741</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2742</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>131</v>
@@ -48915,19 +48854,19 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2744</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="Q201" s="3">
         <v>29411</v>
@@ -49002,7 +48941,7 @@
         <v>113</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BB201" s="1">
         <v>5</v>
@@ -49011,13 +48950,13 @@
         <v>22</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1921</v>
@@ -49035,13 +48974,13 @@
         <v>163</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>123</v>
@@ -49059,16 +48998,16 @@
         <v>113</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>127</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2753</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2754</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>1925</v>
@@ -49109,22 +49048,22 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="Q202" s="3">
         <v>32173</v>
@@ -49205,16 +49144,16 @@
         <v>22</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>119</v>
@@ -49226,13 +49165,13 @@
         <v>222</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>123</v>
@@ -49250,19 +49189,19 @@
         <v>113</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="CH202" s="1" t="s">
+      <c r="CI202" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2768</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>131</v>
@@ -49282,7 +49221,7 @@
         <v>425</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>113</v>
@@ -49294,16 +49233,16 @@
         <v>95</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2771</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2772</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -49333,7 +49272,7 @@
         <v>108</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AH203" s="1" t="s">
         <v>1991</v>
@@ -49378,7 +49317,7 @@
         <v>113</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -49387,7 +49326,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>119</v>
@@ -49405,7 +49344,7 @@
         <v>0</v>
       </c>
       <c r="CA203" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="CB203" s="1" t="s">
         <v>125</v>
@@ -49414,7 +49353,7 @@
         <v>113</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1914</v>
@@ -49458,19 +49397,19 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="Q204" s="3">
         <v>30408</v>
@@ -49539,7 +49478,7 @@
         <v>113</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BB204" s="1">
         <v>5</v>
@@ -49548,13 +49487,13 @@
         <v>22</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>761</v>
@@ -49569,13 +49508,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>123</v>
@@ -49593,16 +49532,16 @@
         <v>113</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>767</v>
@@ -49643,19 +49582,19 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2790</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="Q205" s="3">
         <v>28132</v>
@@ -49730,7 +49669,7 @@
         <v>113</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BB205" s="1">
         <v>5</v>
@@ -49739,16 +49678,16 @@
         <v>22</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2795</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2796</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>119</v>
@@ -49757,7 +49696,7 @@
         <v>107</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>123</v>
@@ -49775,19 +49714,19 @@
         <v>113</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="CH205" s="1" t="s">
+      <c r="CI205" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="CI205" s="1" t="s">
-        <v>2802</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>131</v>
@@ -49825,19 +49764,19 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2804</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2805</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="Q206" s="3">
         <v>31743</v>
@@ -49921,13 +49860,13 @@
         <v>22</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>119</v>
@@ -49936,7 +49875,7 @@
         <v>107</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>123</v>
@@ -49954,16 +49893,16 @@
         <v>113</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2812</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2813</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>131</v>
@@ -50004,19 +49943,19 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="Q207" s="3">
         <v>23750</v>
@@ -50048,12 +49987,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2818</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>108</v>
       </c>
@@ -50103,7 +50037,7 @@
         <v>113</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="BB207" s="1">
         <v>5</v>
@@ -50112,16 +50046,16 @@
         <v>22</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>119</v>
@@ -50130,7 +50064,7 @@
         <v>107</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>123</v>
@@ -50154,16 +50088,16 @@
         <v>1212</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2825</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2826</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>131</v>
@@ -50183,7 +50117,7 @@
         <v>91</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>113</v>
@@ -50195,16 +50129,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>112</v>
@@ -50228,7 +50162,7 @@
         <v>108</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>375</v>
@@ -50282,10 +50216,10 @@
         <v>113</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -50302,7 +50236,7 @@
         <v>1901</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>113</v>
@@ -50314,16 +50248,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>112</v>
@@ -50350,7 +50284,7 @@
         <v>108</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>375</v>
@@ -50395,7 +50329,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>125</v>
@@ -50404,10 +50338,10 @@
         <v>113</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -50424,7 +50358,7 @@
         <v>425</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>113</v>
@@ -50436,16 +50370,16 @@
         <v>95</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>112</v>
@@ -50472,7 +50406,7 @@
         <v>108</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>375</v>
@@ -50517,7 +50451,7 @@
         <v>0</v>
       </c>
       <c r="CA210" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="CB210" s="1" t="s">
         <v>125</v>
@@ -50526,10 +50460,10 @@
         <v>113</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -50546,7 +50480,7 @@
         <v>91</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -50558,16 +50492,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>112</v>
@@ -50639,7 +50573,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>125</v>
@@ -50648,10 +50582,10 @@
         <v>113</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -50668,7 +50602,7 @@
         <v>91</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -50680,16 +50614,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>112</v>
@@ -50767,10 +50701,10 @@
         <v>113</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -50787,7 +50721,7 @@
         <v>91</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -50799,16 +50733,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>112</v>
@@ -50880,7 +50814,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>125</v>
@@ -50889,10 +50823,10 @@
         <v>113</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -50909,7 +50843,7 @@
         <v>425</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>93</v>
@@ -50921,16 +50855,16 @@
         <v>95</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>112</v>
@@ -51002,7 +50936,7 @@
         <v>0</v>
       </c>
       <c r="CA214" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="CB214" s="1" t="s">
         <v>125</v>
@@ -51011,10 +50945,10 @@
         <v>113</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -51049,19 +50983,19 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2855</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2856</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2857</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="Q215" s="3">
         <v>26043</v>
@@ -51087,12 +51021,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2818</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>108</v>
       </c>
@@ -51145,13 +51074,13 @@
         <v>22</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>1170</v>
@@ -51166,13 +51095,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>123</v>
@@ -51190,16 +51119,16 @@
         <v>113</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2864</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2865</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2866</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>1176</v>
@@ -51240,19 +51169,19 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2867</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2869</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="Q216" s="3">
         <v>29945</v>
@@ -51278,12 +51207,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2818</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>108</v>
       </c>
@@ -51339,13 +51263,13 @@
         <v>22</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>1921</v>
@@ -51357,7 +51281,7 @@
         <v>107</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>123</v>
@@ -51375,16 +51299,16 @@
         <v>113</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>127</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>1925</v>
@@ -51425,19 +51349,19 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2879</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="Q217" s="3">
         <v>29034</v>
@@ -51466,12 +51390,7 @@
       <c r="AB217" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2818</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>108</v>
       </c>
@@ -51524,16 +51443,16 @@
         <v>22</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="BI217" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BN217" s="1" t="s">
         <v>119</v>
@@ -51545,13 +51464,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>123</v>
@@ -51569,19 +51488,19 @@
         <v>113</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="CF217" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CH217" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="CI217" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="CJ217" s="1" t="s">
         <v>131</v>
@@ -51619,19 +51538,19 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2888</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2890</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="Q218" s="3">
         <v>29062</v>
@@ -51657,12 +51576,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2818</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>108</v>
       </c>
@@ -51718,13 +51632,13 @@
         <v>22</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>597</v>
@@ -51736,7 +51650,7 @@
         <v>107</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>123</v>
@@ -51754,16 +51668,16 @@
         <v>113</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2895</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2896</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2897</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2898</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>603</v>
@@ -51804,19 +51718,19 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2899</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2901</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="Q219" s="3">
         <v>29181</v>
@@ -51842,12 +51756,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2818</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>108</v>
       </c>
@@ -51900,13 +51809,13 @@
         <v>22</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>597</v>
@@ -51921,13 +51830,13 @@
         <v>222</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>123</v>
@@ -51948,13 +51857,13 @@
         <v>778</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2907</v>
-      </c>
-      <c r="CF219" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2909</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>603</v>
@@ -51995,19 +51904,19 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2910</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2912</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="Q220" s="3">
         <v>30033</v>
@@ -52033,12 +51942,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2818</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>108</v>
       </c>
@@ -52094,13 +51998,13 @@
         <v>22</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="BN220" s="1" t="s">
         <v>119</v>
@@ -52109,7 +52013,7 @@
         <v>107</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>123</v>
@@ -52127,16 +52031,16 @@
         <v>113</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2917</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2918</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2920</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>131</v>
@@ -52177,19 +52081,19 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2923</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="Q221" s="3">
         <v>26843</v>
@@ -52215,12 +52119,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2925</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>108</v>
       </c>
@@ -52267,7 +52166,7 @@
         <v>113</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="BB221" s="1">
         <v>5</v>
@@ -52276,16 +52175,16 @@
         <v>22</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="BJ221" s="1" t="s">
         <v>192</v>
@@ -52300,13 +52199,13 @@
         <v>222</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>123</v>
@@ -52324,19 +52223,19 @@
         <v>113</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>198</v>
@@ -52374,19 +52273,19 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="Q222" s="3">
         <v>25903</v>
@@ -52419,7 +52318,7 @@
         <v>108</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2232</v>
@@ -52470,19 +52369,19 @@
         <v>22</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="BN222" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>123</v>
@@ -52500,16 +52399,16 @@
         <v>113</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="CF222" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="CH222" s="1" t="s">
         <v>2944</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="CF222" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="CH222" s="1" t="s">
-        <v>2947</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>131</v>
@@ -52550,19 +52449,19 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="Q223" s="3">
         <v>28577</v>
@@ -52646,13 +52545,13 @@
         <v>22</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>119</v>
@@ -52661,7 +52560,7 @@
         <v>107</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>123</v>
@@ -52682,13 +52581,13 @@
         <v>333</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>131</v>
@@ -52729,19 +52628,19 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="Q224" s="3">
         <v>23039</v>
@@ -52822,16 +52721,16 @@
         <v>22</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>119</v>
@@ -52843,13 +52742,13 @@
         <v>222</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>123</v>
@@ -52867,19 +52766,19 @@
         <v>113</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>421</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CI224" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="CJ224" s="1" t="s">
         <v>131</v>
@@ -52899,7 +52798,7 @@
         <v>425</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>93</v>
@@ -52911,22 +52810,22 @@
         <v>95</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="N225" s="1" t="s">
         <v>2973</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>2975</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2976</v>
       </c>
       <c r="Q225" s="3">
         <v>17060</v>
@@ -52962,13 +52861,13 @@
         <v>42628</v>
       </c>
       <c r="AD225" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="AF225" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="AH225" s="1" t="s">
         <v>139</v>
@@ -53013,22 +52912,22 @@
         <v>113</v>
       </c>
       <c r="AZ225" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="BB225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD225" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="BH225" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="BI225" s="1" t="s">
         <v>2979</v>
-      </c>
-      <c r="BB225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD225" s="1" t="s">
-        <v>2980</v>
-      </c>
-      <c r="BH225" s="1" t="s">
-        <v>2981</v>
-      </c>
-      <c r="BI225" s="1" t="s">
-        <v>2982</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>119</v>
@@ -53037,7 +52936,7 @@
         <v>107</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>123</v>
@@ -53046,7 +52945,7 @@
         <v>0</v>
       </c>
       <c r="CA225" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CB225" s="1" t="s">
         <v>125</v>
@@ -53061,13 +52960,13 @@
         <v>127</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CI225" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CJ225" s="1" t="s">
         <v>131</v>
@@ -53081,13 +52980,13 @@
         <v>89</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>113</v>
@@ -53099,22 +52998,22 @@
         <v>95</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="Q226" s="3">
         <v>26864</v>
@@ -53147,7 +53046,7 @@
         <v>42735</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>108</v>
@@ -53201,10 +53100,10 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>119</v>
@@ -53216,13 +53115,13 @@
         <v>222</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BT226" s="3">
         <v>102</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>123</v>
@@ -53234,7 +53133,7 @@
         <v>112</v>
       </c>
       <c r="CA226" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CB226" s="1" t="s">
         <v>125</v>
@@ -53243,16 +53142,16 @@
         <v>113</v>
       </c>
       <c r="CD226" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="CF226" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="CH226" s="1" t="s">
         <v>3000</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>3001</v>
-      </c>
-      <c r="CF226" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="CH226" s="1" t="s">
-        <v>3003</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>131</v>
@@ -53272,7 +53171,7 @@
         <v>251</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>92</v>
@@ -53293,16 +53192,16 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="Q227" s="3">
         <v>25379</v>
@@ -53332,7 +53231,7 @@
         <v>39800</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>237</v>
@@ -53386,10 +53285,10 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>119</v>
@@ -53401,13 +53300,13 @@
         <v>1700</v>
       </c>
       <c r="BS227" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BT227" s="3">
         <v>35915</v>
       </c>
       <c r="BU227" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BV227" s="1" t="s">
         <v>123</v>
@@ -53437,10 +53336,10 @@
         <v>652</v>
       </c>
       <c r="CF227" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>131</v>
@@ -53463,7 +53362,7 @@
         <v>91</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>113</v>
@@ -53475,22 +53374,22 @@
         <v>95</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="Q228" s="3">
         <v>17470</v>
@@ -53520,7 +53419,7 @@
         <v>43100</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>108</v>
@@ -53577,10 +53476,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>119</v>
@@ -53589,7 +53488,7 @@
         <v>107</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>123</v>
@@ -53613,16 +53512,16 @@
         <v>113</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>131</v>
@@ -53645,7 +53544,7 @@
         <v>91</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>113</v>
@@ -53657,7 +53556,7 @@
         <v>95</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>97</v>
@@ -53666,10 +53565,10 @@
         <v>2371</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N229" s="1" t="s">
         <v>2373</v>
@@ -53702,7 +53601,7 @@
         <v>43105</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>108</v>
@@ -53756,10 +53655,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>119</v>
@@ -53771,7 +53670,7 @@
         <v>103</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BT229" s="3">
         <v>34412</v>
@@ -53786,7 +53685,7 @@
         <v>0</v>
       </c>
       <c r="CA229" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="CB229" s="1" t="s">
         <v>125</v>
@@ -53804,7 +53703,7 @@
         <v>2382</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>131</v>
@@ -53827,7 +53726,7 @@
         <v>1901</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>93</v>
@@ -53839,22 +53738,22 @@
         <v>95</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="Q230" s="3">
         <v>17726</v>
@@ -53890,7 +53789,7 @@
         <v>43312</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>237</v>
@@ -53941,7 +53840,7 @@
         <v>113</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BB230" s="1">
         <v>0</v>
@@ -53950,10 +53849,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>119</v>
@@ -53962,7 +53861,7 @@
         <v>107</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>123</v>
@@ -53971,7 +53870,7 @@
         <v>0</v>
       </c>
       <c r="CA230" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="CB230" s="1" t="s">
         <v>125</v>
@@ -53980,16 +53879,16 @@
         <v>113</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CF230" s="1" t="s">
         <v>924</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>131</v>
@@ -54012,7 +53911,7 @@
         <v>91</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>93</v>
@@ -54024,22 +53923,22 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="Q231" s="3">
         <v>17041</v>
@@ -54066,13 +53965,13 @@
         <v>42735</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="AH231" s="1" t="s">
         <v>2232</v>
@@ -54123,7 +54022,7 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>119</v>
@@ -54132,7 +54031,7 @@
         <v>107</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>123</v>
@@ -54144,7 +54043,7 @@
         <v>112</v>
       </c>
       <c r="CA231" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CB231" s="1" t="s">
         <v>125</v>
@@ -54153,13 +54052,13 @@
         <v>113</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="CF231" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>131</v>
@@ -54185,7 +54084,7 @@
         <v>1901</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>113</v>
@@ -54197,22 +54096,22 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="Q232" s="3">
         <v>30147</v>
@@ -54238,17 +54137,12 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2818</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>375</v>
@@ -54296,10 +54190,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>119</v>
@@ -54311,13 +54205,13 @@
         <v>103</v>
       </c>
       <c r="BS232" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BT232" s="3">
         <v>37124</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>123</v>
@@ -54326,7 +54220,7 @@
         <v>0</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>125</v>
@@ -54335,16 +54229,16 @@
         <v>113</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>131</v>
@@ -54367,7 +54261,7 @@
         <v>91</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>113</v>
@@ -54379,22 +54273,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="Q233" s="3">
         <v>17821</v>
@@ -54433,7 +54327,7 @@
         <v>43388</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>108</v>
@@ -54484,25 +54378,25 @@
         <v>113</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="BE233" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="BF233" s="1" t="s">
         <v>3068</v>
       </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
+      <c r="BH233" s="1" t="s">
         <v>3069</v>
-      </c>
-      <c r="BE233" s="1" t="s">
-        <v>3070</v>
-      </c>
-      <c r="BF233" s="1" t="s">
-        <v>3071</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>3072</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>119</v>
@@ -54511,7 +54405,7 @@
         <v>107</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>123</v>
@@ -54520,7 +54414,7 @@
         <v>0</v>
       </c>
       <c r="CA233" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="CB233" s="1" t="s">
         <v>125</v>
@@ -54529,16 +54423,16 @@
         <v>113</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CF233" s="1" t="s">
         <v>501</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>131</v>
@@ -54558,7 +54452,7 @@
         <v>251</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>92</v>
@@ -54579,16 +54473,16 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -54621,7 +54515,7 @@
         <v>43980</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>108</v>
@@ -54675,10 +54569,10 @@
         <v>20</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>119</v>
@@ -54690,13 +54584,13 @@
         <v>1700</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BT234" s="3">
         <v>35915</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>123</v>
@@ -54720,7 +54614,7 @@
         <v>652</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>1914</v>
@@ -54758,22 +54652,22 @@
         <v>95</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -54809,7 +54703,7 @@
         <v>44135</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>108</v>
@@ -54866,10 +54760,10 @@
         <v>20</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>119</v>
@@ -54878,7 +54772,7 @@
         <v>107</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>123</v>
@@ -54887,7 +54781,7 @@
         <v>0</v>
       </c>
       <c r="CA235" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="CB235" s="1" t="s">
         <v>125</v>
@@ -54899,10 +54793,10 @@
         <v>1307</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>1914</v>
@@ -54919,10 +54813,10 @@
         <v>88</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1281</v>
@@ -54937,7 +54831,7 @@
         <v>94</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>1281</v>
@@ -54946,19 +54840,19 @@
         <v>92</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="Q236" s="3">
         <v>20466</v>
@@ -55006,7 +54900,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -55039,19 +54933,19 @@
         <v>22</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BG236" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>123</v>
@@ -55069,16 +54963,16 @@
         <v>113</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>131</v>
@@ -55092,10 +54986,10 @@
         <v>88</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1281</v>
@@ -55110,7 +55004,7 @@
         <v>94</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1281</v>
@@ -55119,19 +55013,19 @@
         <v>92</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="Q237" s="3">
         <v>24006</v>
@@ -55176,7 +55070,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -55212,19 +55106,19 @@
         <v>22</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>123</v>
@@ -55251,10 +55145,10 @@
         <v>1106</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>131</v>
@@ -55268,10 +55162,10 @@
         <v>88</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1281</v>
@@ -55286,7 +55180,7 @@
         <v>94</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1281</v>
@@ -55295,19 +55189,19 @@
         <v>92</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="Q238" s="3">
         <v>26193</v>
@@ -55352,7 +55246,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55388,19 +55282,19 @@
         <v>22</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>123</v>
@@ -55421,16 +55315,16 @@
         <v>113</v>
       </c>
       <c r="CD238" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="CE238" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="CF238" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="CH238" s="1" t="s">
         <v>3121</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>3122</v>
-      </c>
-      <c r="CF238" s="1" t="s">
-        <v>3123</v>
-      </c>
-      <c r="CH238" s="1" t="s">
-        <v>3124</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>131</v>
@@ -55444,10 +55338,10 @@
         <v>88</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1281</v>
@@ -55462,7 +55356,7 @@
         <v>94</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1281</v>
@@ -55471,19 +55365,19 @@
         <v>92</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="Q239" s="3">
         <v>24325</v>
@@ -55564,19 +55458,19 @@
         <v>22</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>123</v>
@@ -55597,7 +55491,7 @@
         <v>113</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="CE239" s="1" t="s">
         <v>600</v>
@@ -55606,7 +55500,7 @@
         <v>501</v>
       </c>
       <c r="CH239" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>131</v>
@@ -55620,10 +55514,10 @@
         <v>88</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1281</v>
@@ -55638,7 +55532,7 @@
         <v>94</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1281</v>
@@ -55647,19 +55541,19 @@
         <v>92</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="Q240" s="3">
         <v>24848</v>
@@ -55707,7 +55601,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55743,19 +55637,19 @@
         <v>22</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>123</v>
@@ -55779,13 +55673,13 @@
         <v>485</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>131</v>
@@ -55799,10 +55693,10 @@
         <v>88</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1281</v>
@@ -55817,7 +55711,7 @@
         <v>94</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1281</v>
@@ -55826,19 +55720,19 @@
         <v>92</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="Q241" s="3">
         <v>27702</v>
@@ -55919,19 +55813,19 @@
         <v>22</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>123</v>
@@ -55952,16 +55846,16 @@
         <v>113</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CE241" s="1" t="s">
         <v>612</v>
       </c>
       <c r="CF241" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>131</v>
@@ -55975,10 +55869,10 @@
         <v>88</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1281</v>
@@ -55993,7 +55887,7 @@
         <v>94</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1281</v>
@@ -56002,19 +55896,19 @@
         <v>92</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="Q242" s="3">
         <v>23289</v>
@@ -56062,7 +55956,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -56098,19 +55992,19 @@
         <v>22</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>123</v>
@@ -56131,16 +56025,16 @@
         <v>113</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>131</v>
@@ -56154,10 +56048,10 @@
         <v>88</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1281</v>
@@ -56172,7 +56066,7 @@
         <v>94</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1281</v>
@@ -56181,19 +56075,19 @@
         <v>92</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="Q243" s="3">
         <v>16546</v>
@@ -56241,7 +56135,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -56277,19 +56171,19 @@
         <v>22</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>123</v>
@@ -56313,13 +56207,13 @@
         <v>1013</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>131</v>
@@ -56333,10 +56227,10 @@
         <v>88</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1281</v>
@@ -56351,7 +56245,7 @@
         <v>94</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1281</v>
@@ -56360,10 +56254,10 @@
         <v>92</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -56405,7 +56299,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56441,7 +56335,7 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>119</v>
@@ -56465,7 +56359,7 @@
         <v>113</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>131</v>
@@ -56482,10 +56376,10 @@
         <v>88</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1281</v>
@@ -56500,7 +56394,7 @@
         <v>94</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1281</v>
@@ -56509,19 +56403,19 @@
         <v>92</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>2315</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="Q245" s="3">
         <v>23611</v>
@@ -56566,7 +56460,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56599,19 +56493,19 @@
         <v>22</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>123</v>
@@ -56629,16 +56523,16 @@
         <v>113</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="CE245" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="CF245" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="CH245" s="1" t="s">
         <v>3186</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>3187</v>
-      </c>
-      <c r="CF245" s="1" t="s">
-        <v>3188</v>
-      </c>
-      <c r="CH245" s="1" t="s">
-        <v>3189</v>
       </c>
       <c r="CI245" s="1" t="s">
         <v>131</v>
@@ -56652,10 +56546,10 @@
         <v>88</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1281</v>
@@ -56670,7 +56564,7 @@
         <v>94</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1281</v>
@@ -56679,13 +56573,13 @@
         <v>92</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56769,19 +56663,19 @@
         <v>22</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>123</v>
@@ -56802,16 +56696,16 @@
         <v>2252</v>
       </c>
       <c r="CD246" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="CF246" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="CH246" s="1" t="s">
         <v>3196</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3197</v>
-      </c>
-      <c r="CF246" s="1" t="s">
-        <v>3198</v>
-      </c>
-      <c r="CH246" s="1" t="s">
-        <v>3199</v>
       </c>
       <c r="CI246" s="1" t="s">
         <v>131</v>
@@ -56825,10 +56719,10 @@
         <v>88</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1281</v>
@@ -56843,7 +56737,7 @@
         <v>94</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1281</v>
@@ -56852,19 +56746,19 @@
         <v>92</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="Q247" s="3">
         <v>26349</v>
@@ -56909,7 +56803,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56945,19 +56839,19 @@
         <v>22</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>123</v>
@@ -56978,16 +56872,16 @@
         <v>113</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CH247" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CI247" s="1" t="s">
         <v>131</v>
@@ -57001,10 +56895,10 @@
         <v>88</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1281</v>
@@ -57019,7 +56913,7 @@
         <v>94</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1281</v>
@@ -57028,19 +56922,19 @@
         <v>92</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="Q248" s="3">
         <v>30589</v>
@@ -57088,7 +56982,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -57124,19 +57018,19 @@
         <v>22</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>123</v>
@@ -57157,16 +57051,16 @@
         <v>113</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="CF248" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="CH248" s="1" t="s">
         <v>3218</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="CF248" s="1" t="s">
-        <v>3220</v>
-      </c>
-      <c r="CH248" s="1" t="s">
-        <v>3221</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>131</v>
@@ -57180,10 +57074,10 @@
         <v>88</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1281</v>
@@ -57198,7 +57092,7 @@
         <v>94</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1281</v>
@@ -57207,19 +57101,19 @@
         <v>92</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="Q249" s="3">
         <v>27354</v>
@@ -57267,7 +57161,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -57303,19 +57197,19 @@
         <v>22</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>123</v>
@@ -57336,16 +57230,16 @@
         <v>113</v>
       </c>
       <c r="CD249" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="CE249" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="CF249" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="CH249" s="1" t="s">
         <v>3229</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>3230</v>
-      </c>
-      <c r="CF249" s="1" t="s">
-        <v>3231</v>
-      </c>
-      <c r="CH249" s="1" t="s">
-        <v>3232</v>
       </c>
       <c r="CI249" s="1" t="s">
         <v>131</v>
@@ -57359,10 +57253,10 @@
         <v>88</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1281</v>
@@ -57377,7 +57271,7 @@
         <v>94</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1281</v>
@@ -57386,19 +57280,19 @@
         <v>92</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="Q250" s="3">
         <v>13756</v>
@@ -57485,7 +57379,7 @@
         <v>22</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>116</v>
@@ -57512,10 +57406,10 @@
         <v>113</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="CF250" s="1" t="s">
         <v>210</v>
@@ -57535,10 +57429,10 @@
         <v>88</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1281</v>
@@ -57553,7 +57447,7 @@
         <v>94</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1281</v>
@@ -57562,19 +57456,19 @@
         <v>92</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="Q251" s="3">
         <v>26074</v>
@@ -57622,7 +57516,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57658,25 +57552,25 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BX251" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BY251" s="1">
         <v>0</v>
@@ -57694,16 +57588,16 @@
         <v>113</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="CE251" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="CF251" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="CH251" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="CI251" s="1" t="s">
         <v>131</v>
@@ -57717,10 +57611,10 @@
         <v>88</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1281</v>
@@ -57735,7 +57629,7 @@
         <v>94</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1281</v>
@@ -57744,19 +57638,19 @@
         <v>92</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="Q252" s="3">
         <v>28808</v>
@@ -57801,7 +57695,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57837,19 +57731,19 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>123</v>
@@ -57870,16 +57764,16 @@
         <v>113</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>131</v>
@@ -57893,10 +57787,10 @@
         <v>88</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1281</v>
@@ -57911,7 +57805,7 @@
         <v>94</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1281</v>
@@ -57920,19 +57814,19 @@
         <v>92</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="R253" s="1" t="s">
         <v>137</v>
@@ -57956,7 +57850,7 @@
         <v>108</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>375</v>
@@ -57971,7 +57865,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -58001,19 +57895,19 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>123</v>
@@ -58031,16 +57925,16 @@
         <v>113</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>131</v>
@@ -58054,10 +57948,10 @@
         <v>88</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1281</v>
@@ -58072,7 +57966,7 @@
         <v>94</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1281</v>
@@ -58081,19 +57975,19 @@
         <v>92</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="R254" s="1" t="s">
         <v>137</v>
@@ -58171,19 +58065,19 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>123</v>
@@ -58201,16 +58095,16 @@
         <v>113</v>
       </c>
       <c r="CD254" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="CF254" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="CH254" s="1" t="s">
         <v>3279</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3280</v>
-      </c>
-      <c r="CF254" s="1" t="s">
-        <v>3281</v>
-      </c>
-      <c r="CH254" s="1" t="s">
-        <v>3282</v>
       </c>
       <c r="CI254" s="1" t="s">
         <v>131</v>
@@ -58224,10 +58118,10 @@
         <v>88</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1281</v>
@@ -58242,7 +58136,7 @@
         <v>94</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1281</v>
@@ -58251,19 +58145,19 @@
         <v>92</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="Q255" s="3">
         <v>29466</v>
@@ -58344,19 +58238,19 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>123</v>
@@ -58374,16 +58268,16 @@
         <v>113</v>
       </c>
       <c r="CD255" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="CF255" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="CH255" s="1" t="s">
         <v>3290</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>3291</v>
-      </c>
-      <c r="CF255" s="1" t="s">
-        <v>3292</v>
-      </c>
-      <c r="CH255" s="1" t="s">
-        <v>3293</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>131</v>
@@ -58397,10 +58291,10 @@
         <v>88</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1281</v>
@@ -58415,7 +58309,7 @@
         <v>94</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1281</v>
@@ -58424,22 +58318,22 @@
         <v>92</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="Q256" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>137</v>
@@ -58481,7 +58375,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58514,19 +58408,19 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>123</v>
@@ -58544,16 +58438,16 @@
         <v>113</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="CF256" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="CH256" s="1" t="s">
         <v>3302</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3303</v>
-      </c>
-      <c r="CF256" s="1" t="s">
-        <v>3304</v>
-      </c>
-      <c r="CH256" s="1" t="s">
-        <v>3305</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>131</v>
@@ -58594,19 +58488,19 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="Q257" s="3">
         <v>31561</v>
@@ -58693,13 +58587,13 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>119</v>
@@ -58708,7 +58602,7 @@
         <v>107</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>123</v>
@@ -58738,10 +58632,10 @@
         <v>1273</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>131</v>
@@ -58782,19 +58676,19 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="Q258" s="3">
         <v>32847</v>
@@ -58878,13 +58772,13 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="BI258" s="1" t="s">
         <v>1104</v>
@@ -58902,13 +58796,13 @@
         <v>163</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="BT258" s="3">
         <v>5347</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>123</v>
@@ -58932,16 +58826,16 @@
         <v>113</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="CE258" s="1" t="s">
         <v>458</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>1109</v>
@@ -58982,19 +58876,19 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="Q259" s="3">
         <v>29297</v>
@@ -59078,7 +58972,7 @@
         <v>22</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>116</v>
@@ -59090,13 +58984,13 @@
         <v>222</v>
       </c>
       <c r="BS259" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="BT259" s="3">
         <v>5480</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>123</v>
@@ -59123,10 +59017,10 @@
         <v>472</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>131</v>
@@ -59170,10 +59064,10 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -59203,10 +59097,10 @@
         <v>108</v>
       </c>
       <c r="AG260" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="AH260" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="AJ260" s="1" t="s">
         <v>111</v>
@@ -59254,7 +59148,7 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>119</v>
@@ -59284,7 +59178,7 @@
         <v>93</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>131</v>
@@ -59328,10 +59222,10 @@
         <v>97</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -59361,10 +59255,10 @@
         <v>108</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="AH261" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="AJ261" s="1" t="s">
         <v>111</v>
@@ -59412,7 +59306,7 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>119</v>
@@ -59439,7 +59333,7 @@
         <v>93</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>131</v>
@@ -59465,7 +59359,7 @@
         <v>425</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>113</v>
@@ -59477,22 +59371,22 @@
         <v>95</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -59528,13 +59422,13 @@
         <v>43847</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>1991</v>
@@ -59579,7 +59473,7 @@
         <v>113</v>
       </c>
       <c r="AZ262" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BB262" s="1">
         <v>2</v>
@@ -59588,10 +59482,10 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>119</v>
@@ -59603,13 +59497,13 @@
         <v>120</v>
       </c>
       <c r="BS262" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="BT262" s="3">
         <v>34808</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>123</v>
@@ -59618,7 +59512,7 @@
         <v>0</v>
       </c>
       <c r="CA262" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="CB262" s="1" t="s">
         <v>125</v>
@@ -59627,13 +59521,13 @@
         <v>113</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>1914</v>
@@ -59650,10 +59544,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1281</v>
@@ -59677,16 +59571,16 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -59740,7 +59634,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59770,7 +59664,7 @@
         <v>113</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="BB263" s="1">
         <v>2</v>
@@ -59779,13 +59673,13 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>123</v>
@@ -59803,13 +59697,13 @@
         <v>113</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="CF263" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>131</v>
@@ -59853,16 +59747,16 @@
         <v>97</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59901,7 +59795,7 @@
         <v>44246</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>108</v>
@@ -59958,10 +59852,10 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>119</v>
@@ -59970,7 +59864,7 @@
         <v>107</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>123</v>
@@ -59994,13 +59888,13 @@
         <v>113</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>146</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>131</v>
@@ -60044,16 +59938,16 @@
         <v>97</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -60092,7 +59986,7 @@
         <v>44267</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>108</v>
@@ -60149,10 +60043,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>119</v>
@@ -60164,13 +60058,13 @@
         <v>120</v>
       </c>
       <c r="BS265" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BT265" s="3">
         <v>35711</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>123</v>
@@ -60194,7 +60088,7 @@
         <v>382</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>131</v>
@@ -60238,16 +60132,16 @@
         <v>97</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -60283,16 +60177,16 @@
         <v>44255</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG266" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="AH266" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="AJ266" s="1" t="s">
         <v>111</v>
@@ -60340,10 +60234,10 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>119</v>
@@ -60352,13 +60246,13 @@
         <v>222</v>
       </c>
       <c r="BS266" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="BT266" s="3">
         <v>2302</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>123</v>
@@ -60382,13 +60276,13 @@
         <v>93</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>131</v>
@@ -60432,16 +60326,16 @@
         <v>97</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -60477,7 +60371,7 @@
         <v>44316</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>108</v>
@@ -60534,10 +60428,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>119</v>
@@ -60549,13 +60443,13 @@
         <v>222</v>
       </c>
       <c r="BS267" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="BT267" s="3">
         <v>35108</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>123</v>
@@ -60573,16 +60467,16 @@
         <v>113</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>2008</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>131</v>
@@ -60623,19 +60517,19 @@
         <v>97</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="Q268" s="3">
         <v>27265</v>
@@ -60719,19 +60613,19 @@
         <v>22</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>123</v>
@@ -60752,16 +60646,16 @@
         <v>113</v>
       </c>
       <c r="CD268" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="CE268" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="CF268" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="CH268" s="1" t="s">
         <v>3408</v>
-      </c>
-      <c r="CE268" s="1" t="s">
-        <v>3409</v>
-      </c>
-      <c r="CF268" s="1" t="s">
-        <v>3410</v>
-      </c>
-      <c r="CH268" s="1" t="s">
-        <v>3411</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>131</v>
@@ -60802,16 +60696,16 @@
         <v>97</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60847,16 +60741,16 @@
         <v>44507</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="AH269" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="AI269" s="1" t="s">
         <v>113</v>
@@ -60907,16 +60801,16 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>123</v>
@@ -60940,13 +60834,13 @@
         <v>93</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="CF269" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>131</v>
@@ -60990,19 +60884,19 @@
         <v>97</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="Q270" s="3">
         <v>27433</v>
@@ -61083,13 +60977,13 @@
         <v>22</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="BI270" s="1" t="s">
         <v>1921</v>
@@ -61104,13 +60998,13 @@
         <v>120</v>
       </c>
       <c r="BS270" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="BT270" s="3">
         <v>35278</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>123</v>
@@ -61131,16 +61025,16 @@
         <v>113</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3427</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3428</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3429</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3430</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>1925</v>
@@ -61154,10 +61048,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1281</v>
@@ -61172,7 +61066,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1281</v>
@@ -61181,19 +61075,19 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="Q271" s="3">
         <v>15186</v>
@@ -61241,7 +61135,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -61277,19 +61171,19 @@
         <v>22</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>123</v>
@@ -61316,10 +61210,10 @@
         <v>1536</v>
       </c>
       <c r="CF271" s="1" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="CH271" s="1" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>131</v>
@@ -61360,19 +61254,19 @@
         <v>97</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P272" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="Q272" s="3">
         <v>27215</v>
@@ -61402,10 +61296,10 @@
         <v>108</v>
       </c>
       <c r="AG272" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="AH272" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="AI272" s="1" t="s">
         <v>113</v>
@@ -61456,19 +61350,19 @@
         <v>22</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU272" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="BV272" s="1" t="s">
         <v>123</v>
@@ -61489,16 +61383,16 @@
         <v>93</v>
       </c>
       <c r="CD272" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="CE272" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="CF272" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="CH272" s="1" t="s">
         <v>3448</v>
-      </c>
-      <c r="CE272" s="1" t="s">
-        <v>3449</v>
-      </c>
-      <c r="CF272" s="1" t="s">
-        <v>3450</v>
-      </c>
-      <c r="CH272" s="1" t="s">
-        <v>3451</v>
       </c>
       <c r="CI272" s="1" t="s">
         <v>131</v>
@@ -61508,6 +61402,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ272" xr:uid="{968AAC9F-D671-4DA5-8784-D12246E5D87A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>